--- a/src/Track/TrackModel/GreenLine_Layout_New.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjgranieri/Desktop/ECE 1140/ECE1140ChooChoo/src/Track/TrackModel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7035B4-C57A-D14D-943E-2E86EB98C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E75F4-F29F-4EF8-93B5-ED3742AFB875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="85">
   <si>
     <t>Section</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>2,3</t>
+  </si>
+  <si>
+    <t>Traversal Time</t>
   </si>
 </sst>
 </file>
@@ -694,35 +697,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="J19" zoomScale="74" workbookViewId="0">
+      <selection activeCell="W152" sqref="W152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="V1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -844,13 +851,18 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>100</v>
+        <f>F2*0.621371</f>
+        <v>27.961694999999999</v>
       </c>
       <c r="V2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <f>D2 * 1.09361</f>
+        <v>109.36099999999999</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -910,8 +922,11 @@
         <f t="shared" ref="V3:V66" si="1">D3 * 1.09361</f>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -967,8 +982,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1024,8 +1042,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1081,8 +1102,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1138,8 +1162,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1195,8 +1222,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1252,8 +1282,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -1313,8 +1346,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1370,8 +1406,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -1427,8 +1466,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1488,8 +1530,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1547,8 +1592,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1604,8 +1652,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1661,8 +1712,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1722,8 +1776,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -1779,8 +1836,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -1836,8 +1896,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
@@ -1893,8 +1956,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -1950,8 +2016,11 @@
         <f t="shared" si="1"/>
         <v>164.04149999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -2007,8 +2076,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2068,8 +2140,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -2125,8 +2200,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2182,8 +2260,11 @@
         <f t="shared" si="1"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -2239,8 +2320,11 @@
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -2296,8 +2380,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -2353,8 +2440,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -2412,8 +2502,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
@@ -2474,8 +2567,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -2531,8 +2627,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>20</v>
@@ -2592,8 +2691,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
@@ -2649,8 +2751,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -2706,8 +2811,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>21</v>
@@ -2763,8 +2871,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
@@ -2820,8 +2931,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>22</v>
@@ -2877,8 +2991,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>22</v>
@@ -2934,8 +3051,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>22</v>
@@ -2990,8 +3110,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>22</v>
@@ -3051,8 +3174,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>22</v>
@@ -3108,8 +3234,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>22</v>
@@ -3165,8 +3294,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -3222,8 +3354,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>22</v>
@@ -3279,8 +3414,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>22</v>
@@ -3336,8 +3474,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>22</v>
@@ -3393,8 +3534,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -3450,8 +3594,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>22</v>
@@ -3507,8 +3654,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>22</v>
@@ -3568,8 +3718,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>22</v>
@@ -3625,8 +3778,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>22</v>
@@ -3682,8 +3838,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>22</v>
@@ -3739,8 +3898,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -3796,8 +3958,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>22</v>
@@ -3853,8 +4018,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -3910,8 +4078,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -3967,8 +4138,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -4024,8 +4198,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>22</v>
@@ -4087,8 +4264,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>23</v>
@@ -4148,8 +4328,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -4205,8 +4388,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>23</v>
@@ -4262,8 +4448,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>23</v>
@@ -4319,8 +4508,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>23</v>
@@ -4380,8 +4572,11 @@
         <f t="shared" si="1"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -4439,8 +4634,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -4496,8 +4694,11 @@
         <f t="shared" si="1"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -4557,8 +4758,11 @@
         <f t="shared" si="1"/>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>24</v>
@@ -4614,8 +4818,11 @@
         <f t="shared" ref="V67:V130" si="3">D67 * 1.09361</f>
         <v>218.72199999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -4671,8 +4878,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>24</v>
@@ -4728,8 +4938,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -4785,8 +4998,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>25</v>
@@ -4842,8 +5058,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>25</v>
@@ -4899,8 +5118,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>25</v>
@@ -4956,8 +5178,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>25</v>
@@ -5017,8 +5242,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>26</v>
@@ -5074,8 +5302,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>26</v>
@@ -5131,8 +5362,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -5190,8 +5424,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>27</v>
@@ -5253,8 +5490,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>27</v>
@@ -5310,8 +5550,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>27</v>
@@ -5367,8 +5610,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>27</v>
@@ -5424,8 +5670,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -5481,8 +5730,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W82">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>27</v>
@@ -5538,8 +5790,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>27</v>
@@ -5595,8 +5850,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>27</v>
@@ -5652,8 +5910,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>27</v>
@@ -5711,8 +5972,11 @@
         <f t="shared" si="3"/>
         <v>328.08299999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W86">
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>28</v>
@@ -5773,8 +6037,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>28</v>
@@ -5830,8 +6097,11 @@
         <f t="shared" si="3"/>
         <v>94.706625999999986</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <v>12.470399999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>28</v>
@@ -5891,8 +6161,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>29</v>
@@ -5948,8 +6221,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>29</v>
@@ -6005,8 +6281,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>29</v>
@@ -6062,8 +6341,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>29</v>
@@ -6119,8 +6401,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>29</v>
@@ -6176,8 +6461,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W94">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>29</v>
@@ -6233,8 +6521,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>29</v>
@@ -6290,8 +6581,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W96">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>29</v>
@@ -6351,8 +6645,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>29</v>
@@ -6408,8 +6705,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>30</v>
@@ -6465,8 +6765,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>30</v>
@@ -6522,8 +6825,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>30</v>
@@ -6582,8 +6888,11 @@
         <f t="shared" si="3"/>
         <v>82.020749999999992</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>31</v>
@@ -6644,8 +6953,11 @@
         <f t="shared" si="3"/>
         <v>38.276350000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <v>4.8461538461538467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>32</v>
@@ -6701,8 +7013,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>32</v>
@@ -6758,8 +7073,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>32</v>
@@ -6815,8 +7133,11 @@
         <f t="shared" si="3"/>
         <v>87.488799999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>33</v>
@@ -6876,8 +7197,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>33</v>
@@ -6933,8 +7257,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>33</v>
@@ -6990,8 +7317,11 @@
         <f t="shared" si="3"/>
         <v>98.424899999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <v>11.571428571428573</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>33</v>
@@ -7047,8 +7377,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>33</v>
@@ -7104,8 +7437,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>34</v>
@@ -7161,8 +7497,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>34</v>
@@ -7218,8 +7557,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>34</v>
@@ -7275,8 +7617,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>34</v>
@@ -7332,8 +7677,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>34</v>
@@ -7393,8 +7741,11 @@
         <f t="shared" si="3"/>
         <v>177.16481999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <v>19.439999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>34</v>
@@ -7450,8 +7801,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>34</v>
@@ -7507,8 +7861,11 @@
         <f t="shared" si="3"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>35</v>
@@ -7564,8 +7921,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>35</v>
@@ -7621,8 +7981,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>35</v>
@@ -7678,8 +8041,11 @@
         <f t="shared" si="3"/>
         <v>43.744399999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>35</v>
@@ -7735,8 +8101,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>35</v>
@@ -7792,8 +8161,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -7849,8 +8221,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>36</v>
@@ -7910,8 +8285,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>36</v>
@@ -7967,8 +8345,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>36</v>
@@ -8024,8 +8405,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>36</v>
@@ -8081,8 +8465,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>36</v>
@@ -8138,8 +8525,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>36</v>
@@ -8195,8 +8585,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>36</v>
@@ -8252,8 +8645,11 @@
         <f t="shared" si="3"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>36</v>
@@ -8309,8 +8705,11 @@
         <f t="shared" ref="V131:V153" si="5">D131 * 1.09361</f>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>36</v>
@@ -8366,8 +8765,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>36</v>
@@ -8427,8 +8829,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>36</v>
@@ -8484,8 +8889,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>36</v>
@@ -8541,8 +8949,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>36</v>
@@ -8598,8 +9009,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>36</v>
@@ -8655,8 +9069,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>36</v>
@@ -8712,8 +9129,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>36</v>
@@ -8769,8 +9189,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>36</v>
@@ -8826,8 +9249,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>36</v>
@@ -8883,8 +9309,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>36</v>
@@ -8944,8 +9373,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>36</v>
@@ -9001,8 +9433,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>36</v>
@@ -9058,8 +9493,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>37</v>
@@ -9115,8 +9553,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>37</v>
@@ -9172,8 +9613,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>37</v>
@@ -9229,8 +9673,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>38</v>
@@ -9286,8 +9733,11 @@
         <f t="shared" si="5"/>
         <v>54.680499999999995</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>38</v>
@@ -9343,8 +9793,11 @@
         <f t="shared" si="5"/>
         <v>201.22424000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <v>33.119999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>38</v>
@@ -9400,8 +9853,11 @@
         <f t="shared" si="5"/>
         <v>43.744399999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>39</v>
@@ -9460,8 +9916,11 @@
         <f t="shared" si="5"/>
         <v>38.276350000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
         <v>79</v>
       </c>
@@ -9515,8 +9974,12 @@
         <f t="shared" si="5"/>
         <v>109.36099999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W152">
+        <f xml:space="preserve"> V152/(U152*0.488889)</f>
+        <v>23.999929586474448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
         <v>79</v>
       </c>
@@ -9569,6 +10032,10 @@
       <c r="V153">
         <f t="shared" si="5"/>
         <v>109.36099999999999</v>
+      </c>
+      <c r="W153">
+        <f xml:space="preserve"> V153/(U153*0.488889)</f>
+        <v>23.999929586474448</v>
       </c>
     </row>
   </sheetData>
@@ -9584,12 +10051,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9597,7 +10064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9605,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9613,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9621,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9629,7 +10096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -9637,7 +10104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -9645,7 +10112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -9661,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9669,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9677,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -9685,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -9693,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -9701,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9709,7 +10176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9717,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -9725,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9733,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -9741,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -9749,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -9757,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -9765,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -9773,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -9781,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -9789,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -9797,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -9805,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>

--- a/src/Track/TrackModel/GreenLine_Layout_New.xlsx
+++ b/src/Track/TrackModel/GreenLine_Layout_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeone\Documents\ECE1140ChooChoo\src\Track\TrackModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pjgranieri/Desktop/ECE 1140/ECE1140ChooChoo/src/Track/TrackModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E75F4-F29F-4EF8-93B5-ED3742AFB875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A070287-4DEB-8E48-B3F0-E5309FFAECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
+    <workbookView xWindow="4680" yWindow="4060" windowWidth="23260" windowHeight="12460" xr2:uid="{85290365-C1DC-46B7-8A8F-B8FE040B733E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="86">
   <si>
     <t>Section</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Traversal Time</t>
+  </si>
+  <si>
+    <t>Profeta Ave</t>
   </si>
 </sst>
 </file>
@@ -699,34 +702,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521756E0-942E-44A0-8B9B-C1C5C2AAFFBA}">
   <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" zoomScale="74" workbookViewId="0">
-      <selection activeCell="W152" sqref="W152"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.21875" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -797,7 +800,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -851,18 +854,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <f>F2*0.621371</f>
-        <v>27.961694999999999</v>
+        <v>50</v>
       </c>
       <c r="V2">
-        <f>D2 * 1.09361</f>
-        <v>109.36099999999999</v>
+        <v>300</v>
       </c>
       <c r="W2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -926,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -986,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1046,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1106,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1166,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1226,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1286,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -1350,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1410,7 +1411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -1470,7 +1471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1534,7 +1535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -1596,7 +1597,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -1656,7 +1657,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1716,7 +1717,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -1780,7 +1781,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -1840,7 +1841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -1900,7 +1901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>18</v>
@@ -1960,7 +1961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
@@ -2020,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -2080,7 +2081,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2144,7 +2145,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -2204,7 +2205,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2264,7 +2265,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>19</v>
@@ -2324,7 +2325,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -2384,7 +2385,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -2444,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -2506,7 +2507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
@@ -2571,7 +2572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -2631,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>20</v>
@@ -2695,7 +2696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
@@ -2755,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -2815,7 +2816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>21</v>
@@ -2875,7 +2876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
@@ -2935,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>22</v>
@@ -2995,7 +2996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>22</v>
@@ -3055,7 +3056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>22</v>
@@ -3114,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>22</v>
@@ -3178,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>22</v>
@@ -3238,7 +3239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>22</v>
@@ -3298,7 +3299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -3358,7 +3359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>22</v>
@@ -3418,7 +3419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>22</v>
@@ -3478,7 +3479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>22</v>
@@ -3538,7 +3539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>22</v>
@@ -3598,7 +3599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>22</v>
@@ -3658,7 +3659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>22</v>
@@ -3722,7 +3723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>22</v>
@@ -3782,7 +3783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>22</v>
@@ -3842,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>22</v>
@@ -3902,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>22</v>
@@ -3962,7 +3963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>22</v>
@@ -4022,7 +4023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -4082,7 +4083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -4142,7 +4143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -4202,7 +4203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>22</v>
@@ -4268,7 +4269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>23</v>
@@ -4332,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>23</v>
@@ -4392,7 +4393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>23</v>
@@ -4452,7 +4453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>23</v>
@@ -4512,7 +4513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>23</v>
@@ -4576,7 +4577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -4638,7 +4639,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -4698,7 +4699,7 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>24</v>
@@ -4762,7 +4763,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>24</v>
@@ -4822,7 +4823,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -4882,7 +4883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>24</v>
@@ -4942,7 +4943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -5002,7 +5003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>25</v>
@@ -5062,7 +5063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>25</v>
@@ -5122,7 +5123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>25</v>
@@ -5182,7 +5183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>25</v>
@@ -5246,7 +5247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>26</v>
@@ -5306,7 +5307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>26</v>
@@ -5366,7 +5367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>26</v>
@@ -5428,7 +5429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>27</v>
@@ -5494,7 +5495,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>27</v>
@@ -5554,7 +5555,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>27</v>
@@ -5614,7 +5615,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>27</v>
@@ -5674,7 +5675,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -5734,7 +5735,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>27</v>
@@ -5757,8 +5758,12 @@
       <c r="H83" s="4">
         <v>0.5</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="I83" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
       <c r="K83" s="4"/>
       <c r="M83" s="4">
         <v>0</v>
@@ -5794,7 +5799,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>27</v>
@@ -5854,7 +5859,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>27</v>
@@ -5914,7 +5919,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>27</v>
@@ -5976,7 +5981,7 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>28</v>
@@ -6041,7 +6046,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>28</v>
@@ -6101,7 +6106,7 @@
         <v>12.470399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>28</v>
@@ -6165,7 +6170,7 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>29</v>
@@ -6225,7 +6230,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
         <v>29</v>
@@ -6285,7 +6290,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>29</v>
@@ -6345,7 +6350,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>29</v>
@@ -6405,7 +6410,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>29</v>
@@ -6465,7 +6470,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
         <v>29</v>
@@ -6525,7 +6530,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>29</v>
@@ -6585,7 +6590,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>29</v>
@@ -6649,7 +6654,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
         <v>29</v>
@@ -6709,7 +6714,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
         <v>30</v>
@@ -6769,7 +6774,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
         <v>30</v>
@@ -6829,7 +6834,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>30</v>
@@ -6892,7 +6897,7 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
         <v>31</v>
@@ -6957,7 +6962,7 @@
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
         <v>32</v>
@@ -7017,7 +7022,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
         <v>32</v>
@@ -7077,7 +7082,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>32</v>
@@ -7137,7 +7142,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>33</v>
@@ -7201,7 +7206,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>33</v>
@@ -7261,7 +7266,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>33</v>
@@ -7321,7 +7326,7 @@
         <v>11.571428571428573</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
         <v>33</v>
@@ -7381,7 +7386,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
         <v>33</v>
@@ -7441,7 +7446,7 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
         <v>34</v>
@@ -7501,7 +7506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>34</v>
@@ -7528,7 +7533,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="M112" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" s="4">
         <v>0</v>
@@ -7561,7 +7566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
         <v>34</v>
@@ -7621,7 +7626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
         <v>34</v>
@@ -7681,7 +7686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
         <v>34</v>
@@ -7745,7 +7750,7 @@
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
         <v>34</v>
@@ -7805,7 +7810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>34</v>
@@ -7865,7 +7870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
         <v>35</v>
@@ -7925,7 +7930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
         <v>35</v>
@@ -7985,7 +7990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
         <v>35</v>
@@ -8045,7 +8050,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
         <v>35</v>
@@ -8105,7 +8110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>35</v>
@@ -8165,7 +8170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -8225,7 +8230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>36</v>
@@ -8289,7 +8294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>36</v>
@@ -8349,7 +8354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>36</v>
@@ -8409,7 +8414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>36</v>
@@ -8469,7 +8474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
         <v>36</v>
@@ -8529,7 +8534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
         <v>36</v>
@@ -8589,7 +8594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
         <v>36</v>
@@ -8649,7 +8654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
         <v>36</v>
@@ -8709,7 +8714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>36</v>
@@ -8769,7 +8774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>36</v>
@@ -8833,7 +8838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>36</v>
@@ -8893,7 +8898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>36</v>
@@ -8953,7 +8958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>36</v>
@@ -9013,7 +9018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
         <v>36</v>
@@ -9073,7 +9078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>36</v>
@@ -9133,7 +9138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>36</v>
@@ -9193,7 +9198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>36</v>
@@ -9253,7 +9258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>36</v>
@@ -9313,7 +9318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>36</v>
@@ -9377,7 +9382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>36</v>
@@ -9437,7 +9442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>36</v>
@@ -9497,7 +9502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
         <v>37</v>
@@ -9557,7 +9562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>37</v>
@@ -9617,7 +9622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>37</v>
@@ -9647,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="N147" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" s="4">
         <v>0</v>
@@ -9677,7 +9682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>38</v>
@@ -9737,7 +9742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
         <v>38</v>
@@ -9797,7 +9802,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
         <v>38</v>
@@ -9857,7 +9862,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
         <v>39</v>
@@ -9920,7 +9925,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
         <v>79</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>23.999929586474448</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>79</v>
       </c>
@@ -10051,12 +10056,12 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10064,7 +10069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10072,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -10080,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10088,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -10096,7 +10101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -10104,7 +10109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -10112,7 +10117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10120,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -10128,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -10152,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -10160,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -10168,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10176,7 +10181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -10184,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -10200,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -10208,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -10216,7 +10221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -10224,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -10232,7 +10237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -10240,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -10248,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -10256,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -10264,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -10272,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
